--- a/3d models/Print_Plan.xlsx
+++ b/3d models/Print_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosung\Documents\포항 2021\github\3d models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC81FEAA-554C-4A55-B0DF-CEBB91B50470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBB111F-F5CF-424C-8516-197ED92DCB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="-108" windowWidth="22224" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3300" yWindow="2112" windowWidth="16512" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>B_Wheel_Gear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,23 +52,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B_Wheel_Pinion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우선 순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B_Wheel_Guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">공짜 시간동안만 부탁함, 테스트용임. </t>
+    <t>제질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA,  Onyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궤도 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trc2_part1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trc2_part2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trc2_part3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,123 +407,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.09765625" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" customWidth="1"/>
-    <col min="5" max="5" width="68.59765625" customWidth="1"/>
-    <col min="6" max="6" width="39.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" customWidth="1"/>
+    <col min="6" max="6" width="68.59765625" customWidth="1"/>
+    <col min="7" max="7" width="39.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>DATE(2021,8,17)</f>
-        <v>44425</v>
+        <f>DATE(2021,8,19)</f>
+        <v>44427</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>DATE(2021,8,17)</f>
-        <v>44425</v>
+        <f>DATE(2021,8,19)</f>
+        <v>44427</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>DATE(2021,8,17)</f>
-        <v>44425</v>
+        <f>DATE(2021,8,19)</f>
+        <v>44427</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
